--- a/tables/exprose_minimise.xlsx
+++ b/tables/exprose_minimise.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="720" windowWidth="29560" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="minimise" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>Method</t>
   </si>
   <si>
-    <t>Strucure(s) used</t>
-  </si>
-  <si>
     <t>Median overall G-factor before energy minimisation</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>starting closed, targeting open</t>
+  </si>
+  <si>
+    <t>Structure(s) used</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,21 +423,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>-0.57999999999999996</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>-2.23</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>-0.5</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -504,10 +504,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>-0.56000000000000005</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>-0.56999999999999995</v>
